--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,85 +40,91 @@
     <t>name</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
+    <t>love</t>
   </si>
   <si>
     <t>social</t>
@@ -493,10 +499,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,10 +578,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3">
         <v>0.9444444444444444</v>
@@ -604,28 +610,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D4">
-        <v>29</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -654,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9242424242424242</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.88</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -725,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.8333333333333334</v>
+        <v>0.84</v>
       </c>
       <c r="L6">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -746,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -754,13 +760,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9134615384615384</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -772,19 +778,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.7017543859649122</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -796,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -804,13 +810,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -825,28 +831,28 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8">
+        <v>0.5733333333333334</v>
+      </c>
+      <c r="L8">
+        <v>43</v>
+      </c>
+      <c r="M8">
+        <v>43</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>32</v>
-      </c>
-      <c r="K8">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="L8">
-        <v>34</v>
-      </c>
-      <c r="M8">
-        <v>34</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -854,13 +860,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8421052631578947</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -872,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.5517241379310345</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -896,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -904,13 +910,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.675</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -922,19 +928,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.52</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -946,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -954,13 +960,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7058823529411765</v>
+        <v>0.625</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -972,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.08014571948998178</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L11">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -996,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1010</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1004,13 +1010,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1022,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.0286144578313253</v>
+        <v>0.09016393442622951</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1046,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>645</v>
+        <v>999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1054,7 +1060,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5625</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -1072,7 +1078,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13">
+        <v>0.02259036144578313</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <v>15</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>649</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1080,13 +1110,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5384615384615384</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1098,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1106,13 +1136,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5144927536231884</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C15">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D15">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1124,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1132,13 +1162,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.45</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1150,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1158,13 +1188,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4285714285714285</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1176,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1184,13 +1214,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.425531914893617</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1202,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1210,13 +1240,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3714285714285714</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1228,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1236,13 +1266,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1254,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1262,13 +1292,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1794871794871795</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1280,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
